--- a/Excel/Public/Hero.xlsx
+++ b/Excel/Public/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14925"/>
+    <workbookView windowWidth="22943" windowHeight="10524"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>防御</t>
   </si>
   <si>
+    <t>prefab名称</t>
+  </si>
+  <si>
     <t>_id</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>Deffense</t>
   </si>
   <si>
+    <t>ModelName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -88,7 +94,13 @@
     <t>牧羊人</t>
   </si>
   <si>
+    <t>Herdsman</t>
+  </si>
+  <si>
     <t>阿狸</t>
+  </si>
+  <si>
+    <t>Herdswomen</t>
   </si>
 </sst>
 </file>
@@ -96,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +136,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,16 +165,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,18 +223,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,100 +247,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,43 +294,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,109 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,24 +475,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,41 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,6 +536,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,151 +574,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -791,6 +796,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1075,34 +1085,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:L7"/>
+  <dimension ref="C3:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.87962962962963" style="2" customWidth="1"/>
     <col min="3" max="3" width="5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.62962962962963" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.87962962962963" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="15.6296296296296" style="2" customWidth="1"/>
+    <col min="10" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="30" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1133,76 +1144,85 @@
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:13">
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:13">
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:12">
+    <row r="6" s="1" customFormat="1" spans="3:13">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1225,16 +1245,19 @@
       <c r="L6" s="1">
         <v>5</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:12">
+    <row r="7" s="1" customFormat="1" spans="3:13">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1256,6 +1279,9 @@
       </c>
       <c r="L7" s="1">
         <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
